--- a/data/VOC Monthly Infographic - Hyperlinks_sari_feltman.xlsx
+++ b/data/VOC Monthly Infographic - Hyperlinks_sari_feltman.xlsx
@@ -802,12 +802,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The College School</t>
+          <t>Mount Vernon Presbyterian School</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>58763</t>
+          <t>44456</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -820,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="14">
@@ -831,12 +831,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mount Vernon Presbyterian School</t>
+          <t>The College School</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>44456</t>
+          <t>58763</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -849,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -918,12 +918,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lake Highland Preparatory Lower School</t>
+          <t>Hawaii Preparatory Academy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>60390A</t>
+          <t>50041</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18">
@@ -976,12 +976,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Fletcher School</t>
+          <t>Lake Highland Preparatory Lower School</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20823</t>
+          <t>60390A</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hawaii Preparatory Academy</t>
+          <t>Greenwich Academy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>50041</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1023,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Greenwich Academy</t>
+          <t>The Fletcher School</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>20823</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="22">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>University Liggett School</t>
+          <t>St Paul's School</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>63629</t>
+          <t>54212</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>4.88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Groton School</t>
+          <t>New Canaan Country School</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8045</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1139,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>3.38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>New Canaan Country School</t>
+          <t>University Liggett School</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>63629</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1168,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="26">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>St Paul's School</t>
+          <t>Hamden Hall Country Day School</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>54212</t>
+          <t>54621</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hamden Hall Country Day School</t>
+          <t>Groton School</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>54621</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="28">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Trinity Episcopal School of Austin</t>
+          <t>Lake Highland Preparatory Upper School</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30673</t>
+          <t>60390</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="29">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lake Highland Preparatory Upper School</t>
+          <t>Trinity Episcopal School of Austin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>60390</t>
+          <t>30673</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1284,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>3.83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Friends Academy</t>
+          <t>LaSalle Academy</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27626</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1313,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>3.67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LaSalle Academy</t>
+          <t>Savannah Christian Prep School</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3083</t>
+          <t>62501</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="32">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>St. Mark's Episcopal School</t>
+          <t>Friends Academy</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>44767</t>
+          <t>27626</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>4.67</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="33">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Savannah Christian Prep School</t>
+          <t>St. Mark's Episcopal School</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>62501</t>
+          <t>44767</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>4.5</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="34">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Kamehameha Kapalama Campus</t>
+          <t>Wesleyan Christian Academy</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>28999</t>
+          <t>27025</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kamehameha Kapalama Campus- Lower</t>
+          <t>Hill-Murray School</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>28999A</t>
+          <t>57596</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="36">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hill-Murray School</t>
+          <t>John Paul ll High School</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>57596</t>
+          <t>63320</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hopkins School</t>
+          <t>Gilman School</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>12418</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1516,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38">
@@ -1527,12 +1527,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Beaver Country Day School</t>
+          <t>Stevenson School</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>63038</t>
+          <t>42194</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1545,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Bolles School  </t>
+          <t>Newton Country Day School</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>29003</t>
+          <t>26216</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="40">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Stevenson School</t>
+          <t>Blair Academy</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>42194</t>
+          <t>59973</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gilman School</t>
+          <t>Hackley School</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12418</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1632,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="42">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Blair Academy</t>
+          <t>The Village School</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>59973</t>
+          <t>29008</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1661,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="43">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Newton Country Day School</t>
+          <t>Kamehameha Kapalama Campus</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>26216</t>
+          <t>28999</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The Village School</t>
+          <t>Rectory School</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>29008</t>
+          <t>8108</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rectory School</t>
+          <t>Hopkins School</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8108</t>
+          <t>2047</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1777,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="47">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hackley School</t>
+          <t>Beaver Country Day School</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>63038</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="49">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>John Paul ll High School</t>
+          <t xml:space="preserve">The Bolles School  </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>63320</t>
+          <t>29003</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1864,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50">
@@ -1875,12 +1875,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Wesleyan Christian Academy</t>
+          <t>Kamehameha Kapalama Campus- Lower</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>27025</t>
+          <t>28999A</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kentucky Country Day School</t>
+          <t>School of Holy Child</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>55321</t>
+          <t>18336</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Brophy College</t>
+          <t>The Westfield School</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>64201</t>
+          <t>44792</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>School of Holy Child</t>
+          <t>Providence Country Day School</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>18336</t>
+          <t>45044</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>St Mark's Episcopal Fort Lauderdale</t>
+          <t>Westminster School</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>57240</t>
+          <t>43865</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="56">
@@ -2049,12 +2049,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rockhurst High School</t>
+          <t>Mount Pisgah Christian School</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>27719</t>
+          <t>50574</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Saint Andrews School</t>
+          <t>Rockhurst High School</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>11269</t>
+          <t>27719</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mount de Sales Academy</t>
+          <t>Ashley Hall</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>13603</t>
+          <t>66220</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mount Pisgah Christian School</t>
+          <t>Derryfield School</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>50574</t>
+          <t>61942</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Morristown Beard School</t>
+          <t>Mount de Sales Academy</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>13603</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="62">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ashley Hall</t>
+          <t>St. George's Independent School</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>66220</t>
+          <t>29245</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="63">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The Westfield School</t>
+          <t>Norfolk Collegiate</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>44792</t>
+          <t>42401</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>St. George's Independent School</t>
+          <t>Brophy College</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>29245</t>
+          <t>64201</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2310,12 +2310,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Vistamar School</t>
+          <t>Morristown Beard School</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>54002</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2339,12 +2339,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Norfolk Collegiate</t>
+          <t>Trinity Episcopal School New Orleans</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>42401</t>
+          <t>27741</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>St Thomas Choir School</t>
+          <t>Saint Andrews School</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>57411</t>
+          <t>11269</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nansemond Suffolk Academy</t>
+          <t>St Mark's Episcopal Fort Lauderdale</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>30636</t>
+          <t>57240</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2455,12 +2455,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Trinity Episcopal School New Orleans</t>
+          <t>Nansemond Suffolk Academy</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>27741</t>
+          <t>30636</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="71">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Westminster School</t>
+          <t>Sycamore School</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>43865</t>
+          <t>42530</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Out of Door Academy</t>
+          <t>Vistamar School</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>32561</t>
+          <t>54002</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="73">
@@ -2542,12 +2542,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sycamore School</t>
+          <t>Out of Door Academy</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>42530</t>
+          <t>32561</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Derryfield School</t>
+          <t>St Thomas Choir School</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>61942</t>
+          <t>57411</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Providence Country Day School</t>
+          <t>Kentucky Country Day School</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>45044</t>
+          <t>55321</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Episcopal School of Knoxville</t>
+          <t>Oakhill Day School</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>29492</t>
+          <t>66024</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sonoma Academy</t>
+          <t>St Michael's Catholic Preparatory</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>42775</t>
+          <t>57689</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2712,12 +2712,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Charlotte Preparatory School</t>
+          <t>Bixby School</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>42813</t>
+          <t>63321</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Culver Academies</t>
+          <t>Pius XI High School</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>46302</t>
+          <t>24673</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Avon Old Farms</t>
+          <t>The Brearley School</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>66114</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sage Hill School</t>
+          <t>Regis School</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>40061</t>
+          <t>66283</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2820,12 +2820,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The Westminster School Hamilton Dining</t>
+          <t>Bishop Kelley</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>26161A</t>
+          <t>61565</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2847,12 +2847,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Summit School</t>
+          <t>Valor Christian School</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>21243</t>
+          <t>44267</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cheshire Academy</t>
+          <t>Westminster Schools of Augusta</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>45455</t>
+          <t>30716</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>King School</t>
+          <t>Bishop O'Connell High School</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15174</t>
+          <t>16551</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2928,12 +2928,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Dalton School Upper</t>
+          <t>Eagle Hill School</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>60521</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2955,12 +2955,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Assumption High School</t>
+          <t>Bement School</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>26608</t>
+          <t>66312</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pomfret School</t>
+          <t>Greens Farms Academy</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>16684</t>
+          <t>16663</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3009,12 +3009,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The Frederick Gunn School</t>
+          <t>Christ Church Episcopal School</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>42296</t>
+          <t>17520</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3036,12 +3036,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rye Country Day School</t>
+          <t>Salisbury School</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>66199</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3063,12 +3063,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>The Logan School</t>
+          <t>Brunswick</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>53051</t>
+          <t>9092</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Oaks Christian School</t>
+          <t>Brunswick School- Lower Campus</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>63672</t>
+          <t>14182</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3117,12 +3117,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Saint James School</t>
+          <t>Horace Mann Upper School</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>47693</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Charles River School</t>
+          <t>Oaks Christian School</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>30977</t>
+          <t>63672</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Charlotte Christian School</t>
+          <t>German International School New York</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>13784</t>
+          <t>19977</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3198,12 +3198,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ranney School</t>
+          <t>Oakwood School</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>19267</t>
+          <t>54011</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -3225,12 +3225,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Maine School of Science &amp; Mathematics</t>
+          <t>Brunswick School</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>11401</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3252,12 +3252,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Horace Mann Upper School</t>
+          <t>Everest Collegiate Academy</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>60520</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hickory Grove Christian School</t>
+          <t>Notre Dame High School</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>60874</t>
+          <t>17664</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>St Michael's Catholic Preparatory</t>
+          <t>Noble and Greenough School</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>57689</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>St. Edwards School</t>
+          <t>Middlesex School</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>51472</t>
+          <t>23318</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3360,12 +3360,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Portledge School</t>
+          <t>Xavier High School</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>63193</t>
+          <t>18503</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3414,12 +3414,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Columbia Grammar and Preparatory School-Upper/Middle</t>
+          <t>North Cobb Christian School</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1707A</t>
+          <t>64712</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3441,12 +3441,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Princeton Day School</t>
+          <t>Menlo School</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>16358</t>
+          <t>42185</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Columbia Grammar and Preparatory School</t>
+          <t>Charlotte Latin School</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>8464</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3495,12 +3495,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Walden School</t>
+          <t>Christ Presbyterian Academy</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>57328</t>
+          <t>30901</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3522,12 +3522,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Commonwealth School</t>
+          <t>Riverfield Country Day School</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>42443</t>
+          <t>57533</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Thomas Jefferson School</t>
+          <t>Pine Crest Schools - Boca Raton</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>61431</t>
+          <t>50831</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lawrence Academy</t>
+          <t>Pembroke Hill School Upper</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>63125</t>
+          <t>3857A</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tuxedo Park School</t>
+          <t>Providence Day School</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>17672</t>
+          <t>13632</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3630,12 +3630,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>The Brearley School</t>
+          <t>Maine School of Science &amp; Mathematics</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>66114</t>
+          <t>11401</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>St. Joseph's Catholic School</t>
+          <t>Thornton Academy</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>27496</t>
+          <t>10294</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Providence Day School</t>
+          <t>The Logan School</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>13632</t>
+          <t>53051</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3711,12 +3711,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Middlesex School</t>
+          <t>Dalton School</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>23318</t>
+          <t>1073A</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3738,12 +3738,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TVT Community Day School</t>
+          <t>The Peck School</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>50371</t>
+          <t>42615</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3765,12 +3765,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mercy Academy</t>
+          <t xml:space="preserve">The Walker School Lower Dining </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>65885</t>
+          <t>63283A</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3792,12 +3792,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Winsor School</t>
+          <t>Darlington Lower</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>6977</t>
+          <t>27391A</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3819,12 +3819,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Heritage Christian Academy</t>
+          <t>Commonwealth School</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>57557</t>
+          <t>42443</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -3846,12 +3846,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Annie Wright Schools</t>
+          <t>The dePaul School</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>30900</t>
+          <t>25970</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>United Nations International School</t>
+          <t>Walden School</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>16439</t>
+          <t>57328</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3900,12 +3900,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>St. Xavier</t>
+          <t>Regis Jesuit High School</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>12003</t>
+          <t>44351</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>North Cobb Christian School</t>
+          <t>Dalton School Upper</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>64712</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -3954,12 +3954,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Christina Seix Academy</t>
+          <t>Creighton Preparatory School</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>63282</t>
+          <t>32699</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3981,12 +3981,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>The Windward School - Manhattan Campus</t>
+          <t>Jewish Federation of Palm Beach</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>40346</t>
+          <t>16493</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -4008,12 +4008,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Thornton Academy</t>
+          <t>The School at Columbia University</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>10294</t>
+          <t>13204</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>St Lawrence Seminary</t>
+          <t>Holy Comforter Episcopal School</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>60179</t>
+          <t>52201</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -4062,12 +4062,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>The Webb Institute</t>
+          <t>Professional Childrens School</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>30914</t>
+          <t>51248</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -4089,12 +4089,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Trinity Episcopal School Charlotte</t>
+          <t>Calvert School</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16512</t>
+          <t>14414</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -4116,12 +4116,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Stuart Country Day School of the Sacred Heart</t>
+          <t>St. Xavier</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>27818</t>
+          <t>12003</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4143,12 +4143,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Dalton School</t>
+          <t>The Windward School - Manhattan Campus</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1073A</t>
+          <t>40346</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -4170,12 +4170,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Bishop Kelley</t>
+          <t>Culver Academies</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>61565</t>
+          <t>46302</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>St Philip's Episcopal School</t>
+          <t>The Westminster School Brewer Café</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>57738</t>
+          <t>26161C</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -4224,12 +4224,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>St Andrews Sewanee</t>
+          <t>Baylor School</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>60007</t>
+          <t>66464</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -4251,12 +4251,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>The Hewitt School</t>
+          <t>Hickory Grove Christian School</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>24597</t>
+          <t>60874</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Grace Christian Academy</t>
+          <t>St. Joseph's Catholic School</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>62553</t>
+          <t>27496</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Derby Academy</t>
+          <t>Wilbraham Monson Academy</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>32929</t>
+          <t>45028</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -4332,12 +4332,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Carrollwood Day School</t>
+          <t>Summit School</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>42131</t>
+          <t>21243</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -4359,12 +4359,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Asheville Christian Academy</t>
+          <t>St Lawrence Seminary</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>28938</t>
+          <t>60179</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Pembroke Hill School Upper</t>
+          <t>Tenacre School</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>3857A</t>
+          <t>40950</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lycee Francais de New York School</t>
+          <t>Christina Seix Academy</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>13625</t>
+          <t>63282</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -4440,12 +4440,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tenacre School</t>
+          <t>Stratford Academy</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>40950</t>
+          <t>18218</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -4467,12 +4467,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>The dePaul School</t>
+          <t>The Windward School - White Plains Campus</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>25970</t>
+          <t>12967</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Wilbraham Monson Academy</t>
+          <t>John Burroughs School</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>45028</t>
+          <t>65979</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Oakhill Day School</t>
+          <t>Capital Christian School</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>66024</t>
+          <t>58404</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -4548,12 +4548,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Saint Mark's School</t>
+          <t>Rye Country Day School</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>6964</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Orchard School</t>
+          <t>Cardigan Mountain School</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>63169</t>
+          <t>8068</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4602,12 +4602,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Collegiate School</t>
+          <t>Fountain Valley School</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>62690</t>
+          <t>29261</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -4629,12 +4629,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Brunswick</t>
+          <t>Lincoln School</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>9092</t>
+          <t>30985</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -4656,12 +4656,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Brunswick School</t>
+          <t>Portledge School</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>63193</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Fountain Valley School</t>
+          <t>The Westminster School Guan Café</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>29261</t>
+          <t>26161B</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -4710,12 +4710,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Pine Crest Schools - Boca Raton</t>
+          <t>Saint Mark's School</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>50831</t>
+          <t>6964</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -4737,12 +4737,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Walker School Lower Dining </t>
+          <t>Trinity School ATL</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>63283A</t>
+          <t>28937</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -4764,12 +4764,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Greater Dayton School</t>
+          <t>North Broward Prep</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>59109</t>
+          <t>18400</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cathedral High School</t>
+          <t>Mount Vernon Middle School</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>30654</t>
+          <t>44456A</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cardigan Mountain School</t>
+          <t>Avon Old Farms</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>8068</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -4845,12 +4845,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Westminster Schools of Augusta</t>
+          <t>La Lumiere</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>30716</t>
+          <t>42184</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -4872,12 +4872,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Legacy Christian Academy</t>
+          <t>St Michael's Upper</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>60493</t>
+          <t>57689A</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -4899,12 +4899,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Bixby School</t>
+          <t>The Westminster School Malone Dining</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>63321</t>
+          <t>26161</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -4926,12 +4926,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Menlo School</t>
+          <t>The Lexington School</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>42185</t>
+          <t>66491</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Atlanta International School</t>
+          <t>Sacred Heart Greenwich</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>65812</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Creighton Preparatory School</t>
+          <t>The Pine School Hobe Sound</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>32699</t>
+          <t>18217</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>The Pine School Hobe Sound</t>
+          <t>Wilshire Blvd Temple West Brawerman</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>18217</t>
+          <t>60333</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Covenant Day School</t>
+          <t>Hawaii Baptist Academy</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>44391</t>
+          <t>46364</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>St Michael's Upper</t>
+          <t>Hargrave Military Academy</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>57689A</t>
+          <t>57113</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -5088,12 +5088,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>La Lumiere</t>
+          <t>Lawrence Academy</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>42184</t>
+          <t>63125</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Professional Childrens School</t>
+          <t>Columbia Grammar and Preparatory School</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>51248</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -5142,12 +5142,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Trinity High School</t>
+          <t>Oak Hill School</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>16518</t>
+          <t>29006</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>John Burroughs School</t>
+          <t>Gaston Christian School</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>65979</t>
+          <t>62297</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -5196,12 +5196,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Christ Church Episcopal School</t>
+          <t>Grace Christian Academy</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>17520</t>
+          <t>62553</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -5223,12 +5223,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Harding Academy</t>
+          <t>Cathedral High School</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>26570</t>
+          <t>30654</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Pius XI High School</t>
+          <t>Fenn School</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>24673</t>
+          <t>29505</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -5277,12 +5277,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Holland Hall School</t>
+          <t>St. Edwards School</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>44754</t>
+          <t>51472</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -5304,12 +5304,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>North Broward Prep</t>
+          <t>Charlotte Preparatory School</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>18400</t>
+          <t>42813</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -5331,12 +5331,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Atlanta Academy</t>
+          <t>Trinity School</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>62500</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>The Carey School</t>
+          <t>Asheville Christian Academy</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>60126</t>
+          <t>28938</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -5385,12 +5385,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>KLA Academy</t>
+          <t>Atlanta Speech School</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>56500</t>
+          <t>60151</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -5412,12 +5412,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Horace Mann Lower School</t>
+          <t>Fairfield Country Day School</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Noble and Greenough School</t>
+          <t>Mercy Academy</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>65885</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -5466,12 +5466,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>The Westminster School Brewer Café</t>
+          <t>Notre Dame Prep &amp; Marist Academy</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>26161C</t>
+          <t>40009</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Trinity School ATL</t>
+          <t>Monte Vista Christian School</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>28937</t>
+          <t>62554</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>University School of Milwaukee</t>
+          <t>The Walker School Primary Dining</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>27877</t>
+          <t>63283B</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -5547,12 +5547,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AL School of Cyber Technology and Engineering</t>
+          <t>Cheshire Academy</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>60452</t>
+          <t>45455</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -5574,12 +5574,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Bishop O'Connell High School</t>
+          <t>The Albany Academies Lower School Middle School</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>16551</t>
+          <t>1003A</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Thornton Middle School</t>
+          <t>Collegiate School</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>17576</t>
+          <t>62690</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Charleston Collegiate</t>
+          <t xml:space="preserve">St John's Academy </t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>29010</t>
+          <t>57565</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -5655,12 +5655,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>The Park School</t>
+          <t>Winsor School</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>40010</t>
+          <t>6977</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -5682,12 +5682,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve">St John's Academy </t>
+          <t>Mount Vernon Lower School</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>57565</t>
+          <t>44456B</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Forsyth Country Day School</t>
+          <t>Trinity Episcopal School Charlotte</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>13988</t>
+          <t>16512</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -5736,12 +5736,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Miss Porter's School</t>
+          <t>Mary Institute and St Louis Country Day School (MICDS)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>60150</t>
+          <t>21380</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Windward Westchester Lower School</t>
+          <t>EF Academy</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>55323</t>
+          <t>59868</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -5790,12 +5790,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sacred Heart Greenwich</t>
+          <t>AL School of Cyber Technology and Engineering</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>60452</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tabor Academy</t>
+          <t>Derby Academy</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>32929</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -5844,12 +5844,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Visitation School</t>
+          <t>Columbia Grammar and Preparatory School-Upper/Middle</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>54622</t>
+          <t>1707A</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Christian Heritage School</t>
+          <t>The Albany Academies Upper School</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>12962</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -5898,12 +5898,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Brownell Talbot School</t>
+          <t>Sonoma Academy</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>40258</t>
+          <t>42775</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -5925,12 +5925,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Bishop Stang</t>
+          <t>Oldfields School</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>24526</t>
+          <t>11975</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Salisbury School</t>
+          <t>Sage Hill School</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>66199</t>
+          <t>40061</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -5979,12 +5979,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pike School</t>
+          <t>Belmont Hill School</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>42713</t>
+          <t>63223</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -6006,12 +6006,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>The Westminster School Malone Dining</t>
+          <t>Pomfret School</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>26161</t>
+          <t>16684</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -6033,12 +6033,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Oakwood School</t>
+          <t>The Park School</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>54011</t>
+          <t>40010</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -6060,12 +6060,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>The Vanguard School</t>
+          <t>Cape Fear Academy</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>53941</t>
+          <t>28682</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -6087,12 +6087,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>The Peck School</t>
+          <t>Visitation School</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>42615</t>
+          <t>54622</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -6114,12 +6114,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Trinity School</t>
+          <t>The Ethel Walker School</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>14754</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -6141,12 +6141,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>The Rivers School</t>
+          <t>Annie Wright Schools</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>6975</t>
+          <t>30900</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -6168,12 +6168,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Nord Anglia International School NYC</t>
+          <t>Pine Crest Schools - Fort Lauderdale</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>40446</t>
+          <t>50729</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Valor Christian School</t>
+          <t>Forsyth Country Day School</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>44267</t>
+          <t>13988</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -6222,12 +6222,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Oak Hill School</t>
+          <t>Lycee Francais de New York School</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>29006</t>
+          <t>13625</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -6249,12 +6249,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Lincoln School</t>
+          <t>Princeton Day School</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>30985</t>
+          <t>16358</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>George Walton Academy</t>
+          <t>Tabor Academy</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>57433</t>
+          <t>6578</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Oldfields School</t>
+          <t>Harbor Day</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>11975</t>
+          <t>66430</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Pembroke Hill School Lower</t>
+          <t>St Christopher School</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>51262</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -6357,12 +6357,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Darlington Lower</t>
+          <t>Our Lady of Grace Catholic School</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>27391A</t>
+          <t>63296</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -6384,12 +6384,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>St Stephens Episcopal Day School</t>
+          <t>Cannon School</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>32916</t>
+          <t>32487</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -6411,12 +6411,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Hawaii Baptist Academy</t>
+          <t>Saint James School</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>46364</t>
+          <t>47693</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -6438,12 +6438,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Regis Jesuit High School</t>
+          <t>St. Mary's School</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>44351</t>
+          <t>44534</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -6465,12 +6465,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Hargrave Military Academy</t>
+          <t>Orchard School</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>57113</t>
+          <t>63169</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>The Meadowbrook School</t>
+          <t>Bishop Stang</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>21913</t>
+          <t>24526</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -6519,12 +6519,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Everest Collegiate Academy</t>
+          <t>Legacy Christian Academy</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>60520</t>
+          <t>60493</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -6546,12 +6546,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>The Windward School - White Plains Campus</t>
+          <t>Pike School</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12967</t>
+          <t>42713</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -6573,12 +6573,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Bement School</t>
+          <t>St Mary's Hall</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>66312</t>
+          <t>66282</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -6600,12 +6600,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Monte Vista Christian School</t>
+          <t>Brownell Talbot School</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>62554</t>
+          <t>40258</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -6627,12 +6627,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Regis School</t>
+          <t>St Stephens Episcopal Day School</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>66283</t>
+          <t>32916</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -6654,12 +6654,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Berwick Academy</t>
+          <t>Charleston Collegiate</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>66429</t>
+          <t>29010</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>The Walker School Primary Dining</t>
+          <t>Gulf Stream School</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>63283B</t>
+          <t>62257</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>The Albany Academies Lower School Middle School</t>
+          <t>Episcopal School of Knoxville</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1003A</t>
+          <t>29492</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -6735,12 +6735,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Mount Vernon Middle School</t>
+          <t>Berwick Academy</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>44456A</t>
+          <t>66429</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -6762,12 +6762,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Xavier High School</t>
+          <t>Pardes Jewish Day School</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>18503</t>
+          <t>66176</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -6789,12 +6789,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Dedham Country Day School</t>
+          <t>Wilshire Blvd Temple East Brawerman</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>52824</t>
+          <t>61103</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -6816,12 +6816,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Our Lady of Grace Catholic School</t>
+          <t>Windermere Preparatory School</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>63296</t>
+          <t>27559</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -6843,12 +6843,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Windermere Preparatory School</t>
+          <t>Miss Porter's School</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>27559</t>
+          <t>60150</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -6870,12 +6870,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Cate School</t>
+          <t>The Urban School of San Francisco</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>51558</t>
+          <t>41150</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>The Westminster School Guan Café</t>
+          <t>Greater Dayton School</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>26161B</t>
+          <t>59109</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -6924,12 +6924,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Riverfield Country Day School</t>
+          <t>Tuxedo Park School</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>57533</t>
+          <t>17672</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>EF Academy</t>
+          <t>The Frederick Gunn School</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>59868</t>
+          <t>42296</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -6978,12 +6978,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Wilshire Blvd Temple East Brawerman</t>
+          <t>United Nations International School</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>61103</t>
+          <t>16439</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -7005,12 +7005,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Baylor School</t>
+          <t>Thornton Middle School</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>66464</t>
+          <t>17576</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -7032,12 +7032,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Gaston Christian School</t>
+          <t>Nord Anglia International School NYC</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>62297</t>
+          <t>40446</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Calvert School</t>
+          <t>Charleston Day School</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>14414</t>
+          <t>30557</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -7086,12 +7086,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Briarcrest Christian School</t>
+          <t>Brentwood Academy</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>55625</t>
+          <t>17519</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -7113,12 +7113,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Fenn School</t>
+          <t>Windward Westchester Lower School</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>29505</t>
+          <t>55323</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -7140,12 +7140,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Gulf Stream School</t>
+          <t>Episcopal High School</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>62257</t>
+          <t>17429</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -7167,12 +7167,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>The Waterford School</t>
+          <t>Stuart Country Day School of the Sacred Heart</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>30153</t>
+          <t>27818</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -7194,12 +7194,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Belmont Hill School</t>
+          <t>Horace Mann Lower School</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>63223</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Fairfield Country Day School</t>
+          <t>Harding Academy</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>26570</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -7248,12 +7248,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Mary Institute and St Louis Country Day School (MICDS)</t>
+          <t>Prince of Peace</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>21380</t>
+          <t>32970</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -7275,12 +7275,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Greens Farms Academy</t>
+          <t>Atlanta Academy</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>16663</t>
+          <t>62500</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -7302,12 +7302,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Chatham Day School</t>
+          <t>Charles River School</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>40141</t>
+          <t>30977</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Brentwood Academy</t>
+          <t>The Carey School</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>17519</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -7356,12 +7356,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Holy Comforter Episcopal School</t>
+          <t>The Hewitt School</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>52201</t>
+          <t>24597</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Woodstock Academy</t>
+          <t>The Webb Institute</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>12963</t>
+          <t>30914</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -7410,12 +7410,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Atlanta Speech School</t>
+          <t>St Andrews Sewanee</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>60151</t>
+          <t>60007</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -7437,12 +7437,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Episcopal High School</t>
+          <t>Chatham Day School</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>17429</t>
+          <t>40141</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -7464,12 +7464,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Holy Trinity School</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>40071</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -7491,12 +7491,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>St Christopher School</t>
+          <t>KLA Academy</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>51262</t>
+          <t>56500</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>The Albany Academies Upper School</t>
+          <t>Trinity High School</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>16518</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -7545,12 +7545,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Stratford Academy</t>
+          <t>Holland Hall School</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>18218</t>
+          <t>44754</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -7572,12 +7572,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>The Ethel Walker School</t>
+          <t>Cate School</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>14754</t>
+          <t>51558</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -7599,12 +7599,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Wilshire Blvd Temple West Brawerman</t>
+          <t>Dedham Country Day School</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>60333</t>
+          <t>52824</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -7626,12 +7626,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>The School at Columbia University</t>
+          <t>Chapel Hill Chauncy Hall</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>13204</t>
+          <t>30555</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -7653,12 +7653,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Capital Christian School</t>
+          <t>The Vanguard School</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>58404</t>
+          <t>53941</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -7680,12 +7680,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>The Lexington School</t>
+          <t>The Waterford School</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>66491</t>
+          <t>30153</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Notre Dame Prep &amp; Marist Academy</t>
+          <t>The Meadowbrook School</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>40009</t>
+          <t>21913</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -7734,12 +7734,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Eagle Hill School</t>
+          <t>Berkshire School</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>60521</t>
+          <t>30957</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -7761,12 +7761,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>St Mary's Hall</t>
+          <t>Woodstock Academy</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>66282</t>
+          <t>12963</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -7788,12 +7788,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Cape Fear Academy</t>
+          <t>Assumption High School</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>28682</t>
+          <t>26608</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Chapel Hill Chauncy Hall</t>
+          <t>The Westminster School Hamilton Dining</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>30555</t>
+          <t>26161A</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -7842,12 +7842,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>German International School New York</t>
+          <t>Briarcrest Christian School</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>19977</t>
+          <t>55625</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Brunswick School- Lower Campus</t>
+          <t>George Walton Academy</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>14182</t>
+          <t>57433</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Berkshire School</t>
+          <t>Pembroke Hill School Lower</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>30957</t>
+          <t>3857</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -7923,12 +7923,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Pine Crest Schools - Fort Lauderdale</t>
+          <t>Ranney School</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>50729</t>
+          <t>19267</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -7950,12 +7950,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Christ Presbyterian Academy</t>
+          <t>University School of Milwaukee</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>30901</t>
+          <t>27877</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -7977,12 +7977,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Junipero Serra School</t>
+          <t>Covenant Day School</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>40027</t>
+          <t>44391</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Charlotte Latin School</t>
+          <t>Heritage Christian Academy</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>8464</t>
+          <t>57557</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -8031,12 +8031,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>The Urban School of San Francisco</t>
+          <t>Atlanta International School</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>41150</t>
+          <t>65812</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -8058,12 +8058,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Jewish Federation of Palm Beach</t>
+          <t>Christian Heritage School</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>16493</t>
+          <t>12962</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>St. Mary's School</t>
+          <t>Junipero Serra School</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>44534</t>
+          <t>40027</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -8112,12 +8112,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Cannon School</t>
+          <t>TVT Community Day School</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>32487</t>
+          <t>50371</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -8139,12 +8139,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Darlington</t>
+          <t>Carrollwood Day School</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>27391</t>
+          <t>42131</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -8166,12 +8166,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Pardes Jewish Day School</t>
+          <t>The Rivers School</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>66176</t>
+          <t>6975</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -8193,12 +8193,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>Thomas Jefferson School</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>61431</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -8220,12 +8220,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Harbor Day</t>
+          <t>Holy Trinity School</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>66430</t>
+          <t>40071</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -8247,12 +8247,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Mount Vernon Lower School</t>
+          <t>Darlington</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>44456B</t>
+          <t>27391</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -8274,12 +8274,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Prince of Peace</t>
+          <t>Charlotte Christian School</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>32970</t>
+          <t>13784</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Notre Dame High School</t>
+          <t>St Philip's Episcopal School</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>17664</t>
+          <t>57738</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -8328,12 +8328,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Charleston Day School</t>
+          <t>King School</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>30557</t>
+          <t>15174</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>You said dietary accommodations could be improve.  Of the below dietary accommodations, which offerings could be improved? Select up to three. - Other, please specify - Text</t>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Some days I don't want to eat the meat option however if I've not selected "vegetarian" for the year then I'm not allowed to get the vegetarian option.</t>
+          <t>Silverware had spots of food as well as some plated and not fully dried bowls</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8469,17 +8469,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>You said speed of service could be improved.  Please let us know in what area this could be improved. Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Silverware had spots of food as well as some plated and not fully dried bowls</t>
+          <t>I wish the line was shorter :/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8509,12 +8509,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
+          <t>You said dietary accommodations could be improve.  Of the below dietary accommodations, which offerings could be improved? Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>no more popcorn or smoothie for snack</t>
+          <t>Some days I don't want to eat the meat option however if I've not selected "vegetarian" for the year then I'm not allowed to get the vegetarian option.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -8549,12 +8549,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>You said speed of service could be improved.  Please let us know in what area this could be improved. Select up to three. - Other, please specify - Text</t>
+          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>I wish the line was shorter :/</t>
+          <t xml:space="preserve">launch and dinner more protein and good ones not a chicken that looks raw or is not too well </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -8589,12 +8589,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
+          <t>You said healthy menu offerings could be improved.  Of the below healthy offerings, which offerings could be improved
+Please provide what you would like to see offered in regards to healthy menu offerings. Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">launch and dinner more protein and good ones not a chicken that looks raw or is not too well </t>
+          <t xml:space="preserve">we need more meet, more steak </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -8629,1060 +8630,1059 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>no more popcorn or smoothie for snack</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27626</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Friends Academy</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>You said speed of service could be improved.  Please let us know in what area this could be improved. Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sandwich line </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>40002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The British International  School of Houston</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45592</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>The food served in the BOMA at the British International school of Houston is consistently unhealthy, too much carbs, not enough vegetables or fruit and it is repetitive</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>29003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Bolles School  </t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>it taste reeeeely bad</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>42561</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ravenscroft School</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I witnessed Pavleta dismiss a staff member, "shoo-ing" them off and when the staff member attempted to go back to her post she did it again in a very dismissive manner.  You could tell that the kitchen staff member was bothered by it and rightfully so.  It just didnt seem professional.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hackley School</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>That's incredible, we love that we've exceeded your expectations. What could we do to make your experience even better?</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>i dident laik fud. it was bed. plees make beter</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>65245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Oneil School</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Not enough chicken and most of them were terrible portion sizes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>65245</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Oneil School</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>They were out of chicken basically at the start of lunch</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>62501</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Savannah Christian Prep School</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Take the soft drinks and coffee out </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>57425</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kamehameha Schools - Kea'au</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Staff member was rude when interacting with students and staff while setting up for our event. She was demanding more tables, students ran around helping and setting up a table for her. She spoke to them in a demanding manner. They felt intimidated by her. This is a school, these are the people we serve. Staff member stepped in during another interaction when she returned to setup for lunch - she was being rude to students again and demanding more space. I stepped in and went to go help move the platters away and ensure students weren’t being mistreated. She was barking at me saying I need more space I need more space, this needs to move. I told her to hold on while we help to carry the platters to the side and move them to other tables. Our second event she sped through the middle school bus ramp during our testing/check-in. There are students and families. Then, dropped off our order and didn’t check in with anyone. We had no idea the order had already arrived, etc. The food order was excellent, but the customer service was extremely poor. We are always pleasant and there’s no reason to treat other staff and students like that. Our team expresses gratitude. All other Flik staff have provided excellent customer service and are friendly when they deliver for our events. Unfortunately, this experience was a poor reflection of Flik.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>57425</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Kamehameha Schools - Kea'au</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Staff director’s attitude was unpleasant and showed a negative demeanor when delivering food to event</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>57425</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Kamehameha Schools - Kea'au</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Good was excellent. Unfortunately, it was our experience with staff. Poor customer service. Staff member was rude to staff and students when dropping off and setting up food. Demanding tables, space. Students tried to help her by looking for and setting up tables and staff member continued to be rude and mistreat them. They were trying to help and as an alaka’i on campus that was a poor example of how we treat others.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>29008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The Village School</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Why is my kid eating pork? In the dietary restrictions, I have indicated that my kid doesn't eat pork and I see lot of pork and bacon in the menu! why is that?</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>54621</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hamden Hall Country Day School</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I want beg stew</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>65245</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Oneil School</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>You said healthy menu offerings could be improved.  Of the below healthy offerings, which offerings could be improved
 Please provide what you would like to see offered in regards to healthy menu offerings. Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">we need more meet, more steak </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The soup is SO salty. Many of us teachers talk about how we can’t eat it a lot because of too much salt. Also the quality of the lettuce in the salad bar has gone downhill a lot. It doesn’t look good many days. </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>27626</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Friends Academy</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>45594</v>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>63283</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Walker School Main Dining </t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The meat on the teacher's salad bar continues to be left over from previous days. Can we please have fresh turkey or ham slices to make sandwiches </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2819</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Eastern Maine Community College</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>That's incredible, we love that we've exceeded your expectations. What could we do to make your experience even better?</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Only thing I would say is some of the vegetables don't taste great. Specifically the brussel sprouts I'm not a fan of those but they've been a side dish for the 3 meals this semester. </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>53371</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Battle Ground Academy</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You need to have more children/teen friendly foods on the menu, not everyone eats seafood or pork. Some are allergic to those foods. Taco day should also have regular taco meat (beef) also offer baked chicken tenders everyday like the lower school offers. Your menu is accomodating for adults and not children/teens. </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>63038</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Beaver Country Day School</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>wet plates</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>63283</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Walker School Main Dining </t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>You said dietary accommodations could be improve.  Of the below dietary accommodations, which offerings could be improved? Select up to three. - Other, please specify - Text</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Vegan but I can still eat meat</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Morristown Beard School</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>not enough chicken/rice on salad bar, not fully cooked</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>62668</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Walnut Hill School</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The potatoes for Sunday dinner (10/6) clearly had butter on them but they were not labeled as having dairy. I keep kosher and don’t mix meat and milk and it’s hard for me when I can’t trust the ingredients in dishes. Not to mention if someone has a dairy allergy and eats the potatoes without realizing because the label is missing information. </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>57112</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The First Academy</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45570</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>You said speed of service could be improved.  Please let us know in what area this could be improved. Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sandwich line </t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Check out line</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>40002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>The British International  School of Houston</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>45592</v>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>57112</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The First Academy</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45570</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>The food served in the BOMA at the British International school of Houston is consistently unhealthy, too much carbs, not enough vegetables or fruit and it is repetitive</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The menu’s posted online often do match what ends up being served as the hot lunch. This is disappointing when my child buys on specific days because he think he is getting something then gets something else. The chicken fingers two weeks ago were served raw. He doesn’t always get enough food and is starving but cannot buy more than the hot meal. </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>29003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Bolles School  </t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>45590</v>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>57112</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The First Academy</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45570</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>it taste reeeeely bad</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On 10/3 the menu online said it was flank steak and the hot meal was chicken pasta. This is the third time this year the hot meal was not what was posted online. </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>42561</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Ravenscroft School</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>63283</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Walker School Main Dining </t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>I witnessed Pavleta dismiss a staff member, "shoo-ing" them off and when the staff member attempted to go back to her post she did it again in a very dismissive manner.  You could tell that the kitchen staff member was bothered by it and rightfully so.  It just didnt seem professional.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>The salad bar for the teachers at the primary school has the same left over meat out for several days. We would love to have fresh turkey slices as a daily choice.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1137</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Hackley School</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>That's incredible, we love that we've exceeded your expectations. What could we do to make your experience even better?</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>i dident laik fud. it was bed. plees make beter</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>65245</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Oneil School</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>They were out of chicken basically at the start of lunch</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>65245</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Oneil School</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Not enough chicken and most of them were terrible portion sizes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>57425</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Kamehameha Schools - Kea'au</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Staff director’s attitude was unpleasant and showed a negative demeanor when delivering food to event</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>57425</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Kamehameha Schools - Kea'au</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Good was excellent. Unfortunately, it was our experience with staff. Poor customer service. Staff member was rude to staff and students when dropping off and setting up food. Demanding tables, space. Students tried to help her by looking for and setting up tables and staff member continued to be rude and mistreat them. They were trying to help and as an alaka’i on campus that was a poor example of how we treat others.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>62501</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Savannah Christian Prep School</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Take the soft drinks and coffee out </t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>57425</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Kamehameha Schools - Kea'au</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Staff member was rude when interacting with students and staff while setting up for our event. She was demanding more tables, students ran around helping and setting up a table for her. She spoke to them in a demanding manner. They felt intimidated by her. This is a school, these are the people we serve. Staff member stepped in during another interaction when she returned to setup for lunch - she was being rude to students again and demanding more space. I stepped in and went to go help move the platters away and ensure students weren’t being mistreated. She was barking at me saying I need more space I need more space, this needs to move. I told her to hold on while we help to carry the platters to the side and move them to other tables. Our second event she sped through the middle school bus ramp during our testing/check-in. There are students and families. Then, dropped off our order and didn’t check in with anyone. We had no idea the order had already arrived, etc. The food order was excellent, but the customer service was extremely poor. We are always pleasant and there’s no reason to treat other staff and students like that. Our team expresses gratitude. All other Flik staff have provided excellent customer service and are friendly when they deliver for our events. Unfortunately, this experience was a poor reflection of Flik.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>29008</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>The Village School</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Why is my kid eating pork? In the dietary restrictions, I have indicated that my kid doesn't eat pork and I see lot of pork and bacon in the menu! why is that?</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>54621</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Hamden Hall Country Day School</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I want beg stew</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>65245</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Oneil School</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="E21" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sari Feltman</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>63283</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Walker School Main Dining </t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>You said healthy menu offerings could be improved.  Of the below healthy offerings, which offerings could be improved
 Please provide what you would like to see offered in regards to healthy menu offerings. Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The soup is SO salty. Many of us teachers talk about how we can’t eat it a lot because of too much salt. Also the quality of the lettuce in the salad bar has gone downhill a lot. It doesn’t look good many days. </t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Turkey lunch meat as a choice in the primary school</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2.00</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>63283</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Walker School Main Dining </t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>45582</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The meat on the teacher's salad bar continues to be left over from previous days. Can we please have fresh turkey or ham slices to make sandwiches </t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2819</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Eastern Maine Community College</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>That's incredible, we love that we've exceeded your expectations. What could we do to make your experience even better?</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Only thing I would say is some of the vegetables don't taste great. Specifically the brussel sprouts I'm not a fan of those but they've been a side dish for the 3 meals this semester. </t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>53371</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Battle Ground Academy</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You need to have more children/teen friendly foods on the menu, not everyone eats seafood or pork. Some are allergic to those foods. Taco day should also have regular taco meat (beef) also offer baked chicken tenders everyday like the lower school offers. Your menu is accomodating for adults and not children/teens. </t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>63038</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Beaver Country Day School</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>wet plates</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>63283</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Walker School Main Dining </t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>45574</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>You said dietary accommodations could be improve.  Of the below dietary accommodations, which offerings could be improved? Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Vegan but I can still eat meat</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1216</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Morristown Beard School</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>45573</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>not enough chicken/rice on salad bar, not fully cooked</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>62668</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Walnut Hill School</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>45571</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The potatoes for Sunday dinner (10/6) clearly had butter on them but they were not labeled as having dairy. I keep kosher and don’t mix meat and milk and it’s hard for me when I can’t trust the ingredients in dishes. Not to mention if someone has a dairy allergy and eats the potatoes without realizing because the label is missing information. </t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>57112</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>The First Academy</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>45570</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>You said speed of service could be improved.  Please let us know in what area this could be improved. Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Check out line</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>57112</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>The First Academy</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>45570</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The menu’s posted online often do match what ends up being served as the hot lunch. This is disappointing when my child buys on specific days because he think he is getting something then gets something else. The chicken fingers two weeks ago were served raw. He doesn’t always get enough food and is starving but cannot buy more than the hot meal. </t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>57112</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>The First Academy</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>45570</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On 10/3 the menu online said it was flank steak and the hot meal was chicken pasta. This is the third time this year the hot meal was not what was posted online. </t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>63283</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Walker School Main Dining </t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>45569</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>You said healthy menu offerings could be improved.  Of the below healthy offerings, which offerings could be improved
-Please provide what you would like to see offered in regards to healthy menu offerings. Select up to three. - Other, please specify - Text</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Turkey lunch meat as a choice in the primary school</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sari Feltman</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>63283</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Walker School Main Dining </t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>45569</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>The salad bar for the teachers at the primary school has the same left over meat out for several days. We would love to have fresh turkey slices as a daily choice.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1.60</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -9699,12 +9699,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>57112</t>
+          <t>57240</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The First Academy</t>
+          <t>St Mark's Episcopal Fort Lauderdale</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -9712,17 +9712,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>That's incredible, we love that we've exceeded your expectations. What could we do to make your experience even better?</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not all food available during our lunchtime. Wish teachers had more options. </t>
+          <t>nothing.....</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>You said speed of service could be improved.  Please let us know in what area this could be improved. Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ran out of chicken for the pasta, so my son had noodle with sauce for lunch; also have several overcharges on my account that I brought to attention last year that have still not been dealt with</t>
+          <t xml:space="preserve">Sandwich line is always tooo long </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9779,12 +9779,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>57240</t>
+          <t>57112</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>St Mark's Episcopal Fort Lauderdale</t>
+          <t>The First Academy</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -9792,17 +9792,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>That's incredible, we love that we've exceeded your expectations. What could we do to make your experience even better?</t>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>nothing.....</t>
+          <t>Ran out of chicken for the pasta, so my son had noodle with sauce for lunch; also have several overcharges on my account that I brought to attention last year that have still not been dealt with</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>You said speed of service could be improved.  Please let us know in what area this could be improved. Select up to three. - Other, please specify - Text</t>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Line for buying.</t>
+          <t xml:space="preserve">Not all food available during our lunchtime. Wish teachers had more options. </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sandwich line is always tooo long </t>
+          <t>Line for buying.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9912,17 +9912,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Every day there is hair on the food. It is also not good food. I have gotten food poising several times .</t>
+          <t>Less salty- soups and pasta are way too salty</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -9979,12 +9979,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>57112</t>
+          <t>53445</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The First Academy</t>
+          <t>Tallulah Falls School</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -9992,12 +9992,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>You said speed of service could be improved.  Please let us know in what area this could be improved. Select up to three. - Other, please specify - Text</t>
+          <t>That's incredible, we love that we've exceeded your expectations. What could we do to make your experience even better?</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">We need three people at the cash registers during recharge. Two is not enough and the kids get very backed up in line. </t>
+          <t>Bring back corned beef</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -10019,12 +10019,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>57112</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The First Academy</t>
+          <t>Groton School</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Less salty- soups and pasta are way too salty</t>
+          <t xml:space="preserve">More non-pork breakfast meat options. They’re offered sporadically or not at all. </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -10059,12 +10059,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>53445</t>
+          <t>57112</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tallulah Falls School</t>
+          <t>The First Academy</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>That's incredible, we love that we've exceeded your expectations. What could we do to make your experience even better?</t>
+          <t>You said speed of service could be improved.  Please let us know in what area this could be improved. Select up to three. - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bring back corned beef</t>
+          <t xml:space="preserve">Deli Bar is pretty slow </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deli Bar is pretty slow </t>
+          <t xml:space="preserve">We need three people at the cash registers during recharge. Two is not enough and the kids get very backed up in line. </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10139,12 +10139,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8045</t>
+          <t>57112</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Groton School</t>
+          <t>The First Academy</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -10152,17 +10152,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>You said variety could be improved.  In what areas would you like to see variety improvement? Select up to three. - Other, please specify - Text</t>
+          <t>Its not like us to miss the mark.  We would love to make this right.  Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">More non-pork breakfast meat options. They’re offered sporadically or not at all. </t>
+          <t>Every day there is hair on the food. It is also not good food. I have gotten food poising several times .</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
